--- a/hankin/相機廠牌資料統整.xlsx
+++ b/hankin/相機廠牌資料統整.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\20190709\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hankin_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC25287-9701-4A1C-AFE3-4051203C156D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CDC32F-2A37-4CF2-8A5E-A6E9FE9DB0B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{497BB626-7928-463E-9492-334E6B6A02A6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="487">
   <si>
     <t>canon</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,18 +116,12 @@
     <t>JPEG</t>
   </si>
   <si>
-    <t>Large, Medium, Small</t>
-  </si>
-  <si>
     <t>DNG</t>
   </si>
   <si>
     <t>3:2 / 16:9 / 5:4 / 1:1</t>
   </si>
   <si>
-    <t>MPEG-4, H.264</t>
-  </si>
-  <si>
     <t>MP4</t>
   </si>
   <si>
@@ -143,12 +137,6 @@
     <t>Nikon Z mount</t>
   </si>
   <si>
-    <t>sport, portrait, landscape, night portrait, snow/beach, fireworks, candlelight, sunset</t>
-  </si>
-  <si>
-    <t>Auto, 100-50000</t>
-  </si>
-  <si>
     <t>10fps</t>
   </si>
   <si>
@@ -165,10 +153,6 @@
   </si>
   <si>
     <t>Adobe Photoshop Lightroom</t>
-  </si>
-  <si>
-    <t>NT $ 155,000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C01</t>
@@ -183,9 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4575 萬像素，可換鏡頭式數碼相機</t>
-  </si>
-  <si>
     <t>防水滴防塵設計</t>
   </si>
   <si>
@@ -216,38 +197,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NT $ 183,160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NT $ 15,900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NT $ 102,980</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NT $ 117,000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NT $ 16,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>相機格式：</t>
   </si>
   <si>
-    <t>2010 萬像素，半專業級數碼相機</t>
-  </si>
-  <si>
-    <t>1679 萬像素，輕巧型數碼相機</t>
-  </si>
-  <si>
-    <t>4730 萬像素，半專業級數碼相機</t>
-  </si>
-  <si>
     <t>廠方定價：</t>
   </si>
   <si>
@@ -326,12 +278,6 @@
     <t>質素調較：</t>
   </si>
   <si>
-    <t>Normal, Fine, RAW</t>
-  </si>
-  <si>
-    <t>Fine, Normal, PC Screen, TV Screen</t>
-  </si>
-  <si>
     <t>Fine / Standard</t>
   </si>
   <si>
@@ -410,15 +356,9 @@
     <t>鏡片組合：</t>
   </si>
   <si>
-    <t>9 組 11 片，1 片雙面非球面鏡、1 片非球面 UA 鏡、1 片非球面鏡、1 片 UD 低色散鏡片</t>
-  </si>
-  <si>
     <t>35x optical Zoom</t>
   </si>
   <si>
-    <t>9 組 11 片，包括 3 片非球面</t>
-  </si>
-  <si>
     <t>鏡片焦距：</t>
   </si>
   <si>
@@ -509,9 +449,6 @@
     <t>正常對焦範圍：</t>
   </si>
   <si>
-    <t>5cm - 無限遠 ( Wide ), 40cm - 無限遠 ( Tele )</t>
-  </si>
-  <si>
     <t>30cm - 無限遠</t>
   </si>
   <si>
@@ -557,9 +494,6 @@
     <t>場景模式：</t>
   </si>
   <si>
-    <t>Portrait, Landscape, Night Snapshot, Kids &amp; Pets, Indoor, Sports, Sunset, Night Scene, Fireworks, Beach, Underwater, Aquarium, F</t>
-  </si>
-  <si>
     <t>逆光、沙灘、黑白、日落、煙花、食物、人像、風景、近攝、夜景人像、夜晚風景、雪地、博物館、自拍、高感光、兒童、橫掃、運動、全景、3D 相片等</t>
   </si>
   <si>
@@ -569,21 +503,9 @@
     <t>快門速度：</t>
   </si>
   <si>
-    <t>1/25600 至 30 秒、個別拍攝模式可達 25 秒，不支援 B 快門</t>
-  </si>
-  <si>
-    <t>1/4000 至 8 秒，不支援 B 快門</t>
-  </si>
-  <si>
-    <t>1/40000 至 60 秒，支援 B 快門</t>
-  </si>
-  <si>
     <t>測光模式：</t>
   </si>
   <si>
-    <t>平均測光 (Evaluative), 中央重點平均測光 (Centre-Weighted Averaging), 點測光 (Spot)</t>
-  </si>
-  <si>
     <t>矩陣測光、偏重中央測光、重點測光</t>
   </si>
   <si>
@@ -614,9 +536,6 @@
     <t>ISO 感光值：</t>
   </si>
   <si>
-    <t>125 - 12800 (每 1/3 級調校, 可擴展至 ISO 25600)</t>
-  </si>
-  <si>
     <t>ISO 100-6400</t>
   </si>
   <si>
@@ -626,9 +545,6 @@
     <t>白平衡設定：</t>
   </si>
   <si>
-    <t>自動, 預設 (Daylight, Shade, Cloudy, Tungsten, Fluorescent, Fluorescent H, Flash, Underwater), 手動白平衡</t>
-  </si>
-  <si>
     <t>支援手動白平衡設定</t>
   </si>
   <si>
@@ -641,9 +557,6 @@
     <t>自拍：</t>
   </si>
   <si>
-    <t>2 秒, 10 秒, 自訂時間, 面部偵測自拍模式</t>
-  </si>
-  <si>
     <t>自拍模式</t>
   </si>
   <si>
@@ -665,33 +578,18 @@
     <t>定時拍攝：</t>
   </si>
   <si>
-    <t>支援, 1 - 60 分鐘, 1 - 100 張</t>
-  </si>
-  <si>
     <t>觀景器 VIEWFINDER</t>
   </si>
   <si>
     <t>LCD 熒光幕：</t>
   </si>
   <si>
-    <t>3.0 吋 TFT 觸控 LCD 熒光幕 ，視野率為 100 %</t>
-  </si>
-  <si>
-    <t>3 吋 TFT LCD，5 級光度調整 熒光幕 ，視野率為 98 %</t>
-  </si>
-  <si>
-    <t>3.0 吋 TFT LCD 熒光幕 ，視野率為 100 %</t>
-  </si>
-  <si>
     <t>光學觀景器：</t>
   </si>
   <si>
     <t>沒有光學觀器</t>
   </si>
   <si>
-    <t>368 萬像素電子觀景器，光學觀景器的準確度為 100%</t>
-  </si>
-  <si>
     <t>播放放大：</t>
   </si>
   <si>
@@ -719,9 +617,6 @@
     <t>接口：</t>
   </si>
   <si>
-    <t>USB 3.1 Gen 1, HDMI</t>
-  </si>
-  <si>
     <t>HDMI、Micro USB</t>
   </si>
   <si>
@@ -735,9 +630,6 @@
   </si>
   <si>
     <t>打印協定：</t>
-  </si>
-  <si>
-    <t>PictBridge, Digital Print Order Format (DPOF) Version 1.1</t>
   </si>
   <si>
     <t>PictBridge、DCF、DPOF、Exif 2.3</t>
@@ -881,49 +773,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30.4MP 全片幅 CMOS、DIGIC 6+ 晶片、61 點 AF、7fps 連拍、ISO 102400 高感光、4K 拍片、Dual Pixel AF、Dual Pixel RAW 拍攝、GPS 及 Wi-Fi 功能
-3,170 萬像素
-視鏡頭而定x 光學變焦
-LP-E6 / LP-E6N鋰離子充電池
-機身 800 Gram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,575 萬像素全片幅 CMOS、493 點 Hybrid PDAF 、內置 5 軸防震、9fps 連拍、4K 攝錄
-4,575 萬像素
-視鏡頭而定x 光學變焦
-鋰離子電池EN-EL15b
-連電池 675 Gram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APS-C 尺寸 2,400 萬像 CMOS、4K 拍片、內置 EVF 取景、採用 Leica T 鏡頭系統
-2,400 萬像素
-視鏡頭而定x 光學變焦
-BP-DC 13 專用鋰電池
-連電池 403 Gram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 吋背照層疊式 CMOS、Digic 8 影像處理技術、30fps RAW 連拍、24-100mm 等效焦段、最高 ISO 25600、4K 拍片、支援 YouTube 直播服務
-2,010 萬像素
-4.2x 光學變焦
-Canon NB-13L 鋰充電池
-機身 235 Gram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COOLPIX A1000 配備 35 倍光學變焦及 70 倍動態細緻變焦，於小巧緊湊的機身中提供了最高變焦率。相機備有約 1600 萬有效像素及 ISO 6400 最高感光度，於解像度及高感光度雜訊之間取得最佳平衡，於昏暗環境下仍能呈現優異影像品質。相機機身輕盈，卻支援 4K UHD/30p 格式短片攝錄兼備降低風聲雜音功能，更可在攝錄短片期間儲存靜態影像！
-相機的預先自動對焦 (Pre-AF) 及目標尋找 AF 功能令拍攝特寫或昏暗場景時自動對焦更精準。此外，相機配備的減震 (VR) 功能可於拍攝靜態照片時提供相當於提升快門速度 3.0 級3 的減震效果；而短片專用的 4 軸混合 VR 則有助用戸在黑暗環境或超遠攝場景中拍得清晰鋭利影像；而在微距模式下，兩款相機都可從近至距離鏡頭表面中心 1 厘米（約 0.4 英吋）4 位置進行對焦。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3040 萬像素，單鏡反光相機</t>
-  </si>
-  <si>
-    <t>2500 萬像素，可換鏡頭式數碼相機</t>
-  </si>
-  <si>
     <t>3040 萬像素</t>
   </si>
   <si>
@@ -936,18 +785,9 @@
     <t>2400 萬像素</t>
   </si>
   <si>
-    <t>DPRaw, Raw, JPEG Fine , JPEG Normal (可自定壓縮比率)</t>
-  </si>
-  <si>
-    <t>優良, 良好, 標準</t>
-  </si>
-  <si>
     <t>DPRAW、RAW、RAW + JPEG (Fine)、RAW + JPEG (Standard)</t>
   </si>
   <si>
-    <t>NEF、TIFF（支援 RAW M, S）</t>
-  </si>
-  <si>
     <t>內置單聲道 / 支援外置收音</t>
   </si>
   <si>
@@ -975,9 +815,6 @@
     <t>單點選擇</t>
   </si>
   <si>
-    <t>61 個對焦點，41 點對應 f/4 十字對焦</t>
-  </si>
-  <si>
     <t>多點自動對焦</t>
   </si>
   <si>
@@ -1008,18 +845,6 @@
     <t>未有資料</t>
   </si>
   <si>
-    <t>1 / 8000 至 30 秒，支援 B 快門</t>
-  </si>
-  <si>
-    <t>1/8000 至 30 秒，支援 B 快門</t>
-  </si>
-  <si>
-    <t>1/8000 至 30 秒，不支援 B 快門</t>
-  </si>
-  <si>
-    <t>150,000像素RGB+IR測光感應器</t>
-  </si>
-  <si>
     <t>矩陣：3D 彩色矩陣測光 III / 中央平均 / 偏重中央 / 重點</t>
   </si>
   <si>
@@ -1047,42 +872,18 @@
     <t>-3EV 至 +3EV 以 1/3EV 或 1/2EV 級調整</t>
   </si>
   <si>
-    <t>-5EV 至 +5EV 以 1/3 EV, 1/2 EV 級調整</t>
-  </si>
-  <si>
     <t>+/- 3 EV 以 1/3 EV 級調整</t>
   </si>
   <si>
-    <t>-3EV 至 +3EV, 每次以 1/3EV 調整</t>
-  </si>
-  <si>
-    <t>拍攝 2 至 9 幅，以 1/3、1/2、2/3 或 1 EV 為等級進行微調</t>
-  </si>
-  <si>
-    <t>拍攝三張，以 1/3 級 EV，增減 3 EV 值</t>
-  </si>
-  <si>
-    <t>包圍數量 2, 3, 5, 7 張</t>
-  </si>
-  <si>
     <t>可選擇以快門、光圈或 ISO 值包圍</t>
   </si>
   <si>
-    <t>100, 200, 400, 800, 1600, 3200, 6400, 12800, 25600, 32100(1/3 級調校)</t>
-  </si>
-  <si>
     <t>ISO 64 - 25600 可擴展至 ISO 32 (Low-1) / 102400 (Hi-2)</t>
   </si>
   <si>
-    <t>擴展模式 50, 102400</t>
-  </si>
-  <si>
     <t>自動、日光、陰影、密雲、鎢絲燈、光管、閃光燈、直接手動指定色溫 (Kelvin)</t>
   </si>
   <si>
-    <t>自動（3種類型）、白熾燈、螢光燈（7種類型）、直射陽光、閃光、陰天、陰影、選擇色溫(2500 K-10000 K)，均可進行微調</t>
-  </si>
-  <si>
     <t>自動、日光、陰天、白熾燈、陰天、閃光燈、直接手動指定色溫 (Kelvin)</t>
   </si>
   <si>
@@ -1102,21 +903,6 @@
   </si>
   <si>
     <t>電腦控制 (以 USB 連接)</t>
-  </si>
-  <si>
-    <t>3.2 吋 Touch LCD 熒光幕 ，視野率為 100 %</t>
-  </si>
-  <si>
-    <t>3.2 吋 多角度 TFT LCD（輕觸式） 熒光幕 ，視野率為 100 %</t>
-  </si>
-  <si>
-    <t>3 吋 觸控式 TFT LCD 熒光幕 ，視野率為 100 %</t>
-  </si>
-  <si>
-    <t>0.71x 放大率、稜鏡反射式，光學觀景器的準確度為 100%</t>
-  </si>
-  <si>
-    <t>內置 236 萬點 EVF，光學觀景器的準確度為 100%</t>
   </si>
   <si>
     <t>Compact Flash 記憶咭 (支援 UDMA 7) (Type I only) 支援 UHS-I Speed Class 3</t>
@@ -1201,19 +987,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NT $ 169,000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NT $ 209,900
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NT $ 226,000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> Canon EOS 1D X Mark II</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1222,49 +995,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-全片幅 CMOS 感光元件、4,730 萬有效像素、Wi-Fi 傳輸、內置 368 萬像素 EVF、支援 4K 拍片、最高 ISO 50000 感光度、20fps 連拍
-5,040 萬像素
-1x 光學變焦
-BP-SCL4 專用鋰離子充電池
-連電池 718 Gram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,020 萬像素、感光範圍最高 ISO 409600、61 點對焦全部支援 f/8.0 應應、4K 拍片、Touch Screen
-2,020 萬像素
-視鏡頭而定x 光學變焦
-專用鋰電
-連電池 1530 Gram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2074 萬像素全片幅 CMOS、最高 ISO 3,280,000 感光度、12 fps 連拍
-2,074 萬像素
-視鏡頭而定x 光學變焦
-鋰離子 Li-ion EN-EL18a 電池
-連電池 1405 Gram
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,400 萬像素全片幅 CMOS、靜音快門
-2,400 萬像素
-視鏡頭而定x 光學變焦
-鋰離子充電池
-連電池 680 Gram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2200 萬像素，單鏡反光相機</t>
-  </si>
-  <si>
-    <t>2133 萬像素，單鏡反光相機</t>
-  </si>
-  <si>
-    <t>2400 萬像素，可換鏡頭式數碼相機</t>
-  </si>
-  <si>
     <t>防塵防水滴</t>
   </si>
   <si>
@@ -1295,15 +1025,9 @@
     <t>不支援 Jpeg</t>
   </si>
   <si>
-    <t>Raw, JPEG Fine , JPEG Normal (可自定壓縮比率)</t>
-  </si>
-  <si>
     <t>RAW、RAW + JPEG (Fine)、RAW + JPEG (Standard)</t>
   </si>
   <si>
-    <t>12-bit RAW, DNG (20 MB), 30 MB (compressed); 48.22 MB (uncompressed)</t>
-  </si>
-  <si>
     <t>無</t>
   </si>
   <si>
@@ -1319,18 +1043,12 @@
     <t>Leica M 接環</t>
   </si>
   <si>
-    <t>1/4000 至 60 (Bulb) 秒，支援 B 快門</t>
-  </si>
-  <si>
     <t>配備 DIGIC 6+ 影像處理器 36 萬像素 RGB 感測器</t>
   </si>
   <si>
     <t>216 區平均測光及 35 區應付弱光測光</t>
   </si>
   <si>
-    <t>矩陣：3D 彩色矩陣測光 III / 偏重中央：約 75% 的比重集中在畫面中央 12、 8、15 或 20 mm 直徑圈中，或者平均分佈於整個畫面 / 重點: 集中在以所選對焦點為中心的 4 mm 直徑圈中（約 1.5%）</t>
-  </si>
-  <si>
     <t>TTL、多區測光、中央偏重平均測光、重點測光、</t>
   </si>
   <si>
@@ -1340,21 +1058,6 @@
     <t>-3EV 至 +3EV 以 1/3 EV 級調整</t>
   </si>
   <si>
-    <t>3 / 5 張, 1/2, 1, 2, 3 EV 間距</t>
-  </si>
-  <si>
-    <t>100, 200, 400, 800, 1600, 3200, 6400, 12800, 25600, 51200(1/3 級調校)</t>
-  </si>
-  <si>
-    <t>擴展模式 50, 102400, 204800, 409600</t>
-  </si>
-  <si>
-    <t>ISO 100 - 102,400，可擴展至 ISO 50 (Low-1) / 204800 (Hi-1) / 409600 (Hi-2) / 819200 (Hi-3) / 1638400 (Hi-4) / 3280000 (Hi-5)</t>
-  </si>
-  <si>
-    <t>ISO 200 - 6400, 可擴展至 ISO 100</t>
-  </si>
-  <si>
     <t>自動、日光、陰影、陰天、鎢絲燈、光管、閃光燈、自設、色溫設定、手動</t>
   </si>
   <si>
@@ -1376,36 +1079,21 @@
     <t>以專用電腦軟件控制 (USB 連接)</t>
   </si>
   <si>
-    <t>3.2 吋 Touch 熒光幕 ，視野率為 100 %</t>
-  </si>
-  <si>
-    <t>3.2 吋 TFT LCD（輕觸式） 熒光幕 ，視野率為 100 %</t>
-  </si>
-  <si>
     <t>沒有 LCD 熒光幕</t>
   </si>
   <si>
-    <t>支援，放大率約 0.76 倍，光學觀景器的準確度為 100%</t>
-  </si>
-  <si>
     <t>Compact Flash 記憶咭 (Type I and II) / CFast 2.0 記憶咭</t>
   </si>
   <si>
     <t>雙XQD 或 雙CF 記憶卡（兼容UDMA )</t>
   </si>
   <si>
-    <t>雙記憶卡插槽: 每張卡都可用作主要或備用儲存空間，或用於分開儲存 NEF（RAW）和 JPEG 影像；照片可在兩張卡之間進行複製</t>
-  </si>
-  <si>
     <t>USB 3.0、RJ45 Gigabit LAN</t>
   </si>
   <si>
     <t>PAL / NTSC / HDMI</t>
   </si>
   <si>
-    <t>PictBridge, Exif Print</t>
-  </si>
-  <si>
     <t>專用鋰電</t>
   </si>
   <si>
@@ -1424,9 +1112,6 @@
     <t>BP-SCL2 鋰離子充電池 (7.4V)及隨附附送叉電機</t>
   </si>
   <si>
-    <t>3,780 張</t>
-  </si>
-  <si>
     <t>支援專用火牛</t>
   </si>
   <si>
@@ -1464,9 +1149,6 @@
   </si>
   <si>
     <t>支援 4K 電影功能</t>
-  </si>
-  <si>
-    <t>在拍片的時候，光圈、快門及 ISO 可完全手動控制</t>
   </si>
   <si>
     <t>拍片時可以連接立體耳機作收音監聽</t>
@@ -1492,12 +1174,6 @@
   </si>
   <si>
     <t>50cm - 無限遠 (wide); 200cm - 無限遠 (tele)</t>
-  </si>
-  <si>
-    <t>369 萬點 EVF; 約 0.8 倍放大率，光學觀景器的準確度為 100%</t>
-  </si>
-  <si>
-    <t>眼平五棱鏡單鏡反光觀景器; 約 0.72 倍放大率，光學觀景器的準確度為 100%</t>
   </si>
   <si>
     <t>高速 USB 3.1; 3.5mm 音訊輸入/輸出</t>
@@ -1522,52 +1198,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3840 x 2160 @ 30p / 144 Mbps, MOV, H.264, Linear PCM; 
-3840 x 2160 @ 25p / 144 Mbps, MOV, H.264, Linear PCM; 
-3840 x 2160 @ 24p / 144 Mbps, MOV, H.264, Linear PCM;
-1920 x 1080 @ 120p, MOV, H.264, Linear PCM;
-1920 x 1080 @ 100p, MOV, H.264, Linear PCM;
-1920 x 1080 @ 50p, MOV, H.264, Linear PCM;
-1920 x 1080 @ 30p, MOV, H.264, Linear PCM
-1920 x 1080 @ 25p, MOV, H.264, Linear PCM;
-1920 x 1080 @ 24p, MOV, H.264, Linear PCM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3840 x 2160 @ 30p, MP4, H.264, AAC;
-1920 x 1080 @ 60p, MP4, H.264, AAC;
-1280 x 720 @ 60p, MP4, H.264, AAC;
-1280 x 720 @ 120p, MP4, H.264, AAC;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3840 x 2160 @ 30p / 120 Mbps, MOV, H.264, AAC;
-1920 x 1080 @ 120p / 120 Mbps, MOV, H.264, AAC;
-1920 x 1080 @ 60p / 60 Mbps, MOV, H.264, AAC;
-1920 x 1080 @ 30p / 30 Mbps, MOV, H.264, AAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4K（24p/30p）;
 1920 x 1080（24p/30p/60p/120p）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4096 x 2160 (60p, 30p, 25p, 24p, 23.98p); 
-1920 x 1080 (120p, 60p, 50p, 25p, 24p, 23.98p)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">3:2 / 4:3 / 16:9 / 5:4; 
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4K/UHD : 3,840x2,160 @ 30/25/24fps;
-HD︰1280 x 720 @ 60/50fps;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MPEG-4 AVC/H.264;
 分別可選 ALL-I（I-only）、IPB 兩種</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1586,10 +1226,6 @@
   </si>
   <si>
     <t>動畫種類：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H.264/MPEG-4先進視頻編碼 MOV 格式影片，支援全手動曝光，每段 29 分鐘 59 秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1606,15 +1242,6 @@
 人面對焦;
 人面追蹤;
 支援自動對焦鎖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TTL-AREA-SIR 自動對焦感應器;
-61 個對焦點，41 點對應 f/4 十字對焦;
-單次對焦 (One-Shot AF);
-人工智能伺服對焦 (AI SERVO);
-6 種自動對焦區域模式(包括區域自動對焦及重點自動對焦);
-Dual Pixel CMOS AF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1685,26 +1312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FX-format: 4,176 x 2,784; 
-2,784 x 1,856; 
-4,640 x 3,088; 
-3,472 x 2,312; 
-2,320 x 1,544;
-4,640 x 3,712; 
-3,472 x 2,784;
-2,320 x 1,856;
-DX-format: 3,648 x 2,432;
- 2,736 x 1,824; 
-1,824 x 1,216 ;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5952 x 3976,
-4256 x 2832, 
-2976 x 1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Nikon Z7</t>
   </si>
   <si>
@@ -1714,15 +1321,357 @@
   <si>
     <t>專業</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">209900
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.4MP 全片幅 CMOS、DIGIC 6+ 晶片、61 點 AF、7fps 連拍、ISO 102400 高感光、4K 拍片、Dual Pixel AF、Dual Pixel RAW 拍攝、GPS 及 Wi-Fi 功能
+3170 萬像素
+視鏡頭而定x 光學變焦
+LP-E6 / LP-E6N鋰離子充電池
+機身 800 Gram</t>
+  </si>
+  <si>
+    <t>4575 萬像素全片幅 CMOS、493 點 Hybrid PDAF 、內置 5 軸防震、9fps 連拍、4K 攝錄
+4575 萬像素
+視鏡頭而定x 光學變焦
+鋰離子電池EN-EL15b
+連電池 675 Gram</t>
+  </si>
+  <si>
+    <t>APS-C 尺寸 2400 萬像 CMOS、4K 拍片、內置 EVF 取景、採用 Leica T 鏡頭系統
+2400 萬像素
+視鏡頭而定x 光學變焦
+BP-DC 13 專用鋰電池
+連電池 403 Gram</t>
+  </si>
+  <si>
+    <t>1 吋背照層疊式 CMOS、Digic 8 影像處理技術、30fps RAW 連拍、24-100mm 等效焦段、最高 ISO 25600、4K 拍片、支援 YouTube 直播服務
+2010 萬像素
+4.2x 光學變焦
+Canon NB-13L 鋰充電池
+機身 235 Gram</t>
+  </si>
+  <si>
+    <t>COOLPIX A1000 配備 35 倍光學變焦及 70 倍動態細緻變焦於小巧緊湊的機身中提供了最高變焦率。相機備有約 1600 萬有效像素及 ISO 6400 最高感光度於解像度及高感光度雜訊之間取得最佳平衡於昏暗環境下仍能呈現優異影像品質。相機機身輕盈卻支援 4K UHD/30p 格式短片攝錄兼備降低風聲雜音功能更可在攝錄短片期間儲存靜態影像！
+相機的預先自動對焦 (Pre-AF) 及目標尋找 AF 功能令拍攝特寫或昏暗場景時自動對焦更精準。此外相機配備的減震 (VR) 功能可於拍攝靜態照片時提供相當於提升快門速度 3.0 級3 的減震效果；而短片專用的 4 軸混合 VR 則有助用戸在黑暗環境或超遠攝場景中拍得清晰鋭利影像；而在微距模式下兩款相機都可從近至距離鏡頭表面中心 1 厘米（約 0.4 英吋）4 位置進行對焦。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+全片幅 CMOS 感光元件、4730 萬有效像素、Wi-Fi 傳輸、內置 368 萬像素 EVF、支援 4K 拍片、最高 ISO 50000 感光度、20fps 連拍
+5040 萬像素
+1x 光學變焦
+BP-SCL4 專用鋰離子充電池
+連電池 718 Gram</t>
+  </si>
+  <si>
+    <t>2020 萬像素、感光範圍最高 ISO 409600、61 點對焦全部支援 f/8.0 應應、4K 拍片、Touch Screen
+2020 萬像素
+視鏡頭而定x 光學變焦
+專用鋰電
+連電池 1530 Gram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2074 萬像素全片幅 CMOS、最高 ISO 3280000 感光度、12 fps 連拍
+2074 萬像素
+視鏡頭而定x 光學變焦
+鋰離子 Li-ion EN-EL18a 電池
+連電池 1405 Gram
+</t>
+  </si>
+  <si>
+    <t>2400 萬像素全片幅 CMOS、靜音快門
+2400 萬像素
+視鏡頭而定x 光學變焦
+鋰離子充電池
+連電池 680 Gram</t>
+  </si>
+  <si>
+    <t>3040 萬像素單鏡反光相機</t>
+  </si>
+  <si>
+    <t>4575 萬像素可換鏡頭式數碼相機</t>
+  </si>
+  <si>
+    <t>2500 萬像素可換鏡頭式數碼相機</t>
+  </si>
+  <si>
+    <t>2010 萬像素半專業級數碼相機</t>
+  </si>
+  <si>
+    <t>1679 萬像素輕巧型數碼相機</t>
+  </si>
+  <si>
+    <t>4730 萬像素半專業級數碼相機</t>
+  </si>
+  <si>
+    <t>2200 萬像素單鏡反光相機</t>
+  </si>
+  <si>
+    <t>2133 萬像素單鏡反光相機</t>
+  </si>
+  <si>
+    <t>2400 萬像素可換鏡頭式數碼相機</t>
+  </si>
+  <si>
+    <t>FX-format: 4176 x 2784; 
+2784 x 1856; 
+4640 x 3088; 
+3472 x 2312; 
+2320 x 1544;
+4640 x 3712; 
+3472 x 2784;
+2320 x 1856;
+DX-format: 3648 x 2432;
+ 2736 x 1824; 
+1824 x 1216 ;</t>
+  </si>
+  <si>
+    <t>5952 x 3976
+4256 x 2832 
+2976 x 1984</t>
+  </si>
+  <si>
+    <t>DPRaw Raw JPEG Fine  JPEG Normal (可自定壓縮比率)</t>
+  </si>
+  <si>
+    <t>Large Medium Small</t>
+  </si>
+  <si>
+    <t>優良 良好 標準</t>
+  </si>
+  <si>
+    <t>Normal Fine RAW</t>
+  </si>
+  <si>
+    <t>Fine Normal PC Screen TV Screen</t>
+  </si>
+  <si>
+    <t>Raw JPEG Fine  JPEG Normal (可自定壓縮比率)</t>
+  </si>
+  <si>
+    <t>NEF、TIFF（支援 RAW M S）</t>
+  </si>
+  <si>
+    <t>12-bit RAW DNG (20 MB) 30 MB (compressed); 48.22 MB (uncompressed)</t>
+  </si>
+  <si>
+    <t>3840 x 2160 @ 30p / 144 Mbps MOV H.264 Linear PCM; 
+3840 x 2160 @ 25p / 144 Mbps MOV H.264 Linear PCM; 
+3840 x 2160 @ 24p / 144 Mbps MOV H.264 Linear PCM;
+1920 x 1080 @ 120p MOV H.264 Linear PCM;
+1920 x 1080 @ 100p MOV H.264 Linear PCM;
+1920 x 1080 @ 50p MOV H.264 Linear PCM;
+1920 x 1080 @ 30p MOV H.264 Linear PCM
+1920 x 1080 @ 25p MOV H.264 Linear PCM;
+1920 x 1080 @ 24p MOV H.264 Linear PCM</t>
+  </si>
+  <si>
+    <t>3840 x 2160 @ 30p MP4 H.264 AAC;
+1920 x 1080 @ 60p MP4 H.264 AAC;
+1280 x 720 @ 60p MP4 H.264 AAC;
+1280 x 720 @ 120p MP4 H.264 AAC;</t>
+  </si>
+  <si>
+    <t>3840 x 2160 @ 30p / 120 Mbps MOV H.264 AAC;
+1920 x 1080 @ 120p / 120 Mbps MOV H.264 AAC;
+1920 x 1080 @ 60p / 60 Mbps MOV H.264 AAC;
+1920 x 1080 @ 30p / 30 Mbps MOV H.264 AAC</t>
+  </si>
+  <si>
+    <t>4096 x 2160 (60p 30p 25p 24p 23.98p); 
+1920 x 1080 (120p 60p 50p 25p 24p 23.98p)</t>
+  </si>
+  <si>
+    <t>4K/UHD : 3840x2160 @ 30/25/24fps;
+HD︰1280 x 720 @ 60/50fps;</t>
+  </si>
+  <si>
+    <t>H.264/MPEG-4先進視頻編碼 MOV 格式影片支援全手動曝光每段 29 分鐘 59 秒</t>
+  </si>
+  <si>
+    <t>9 組 11 片1 片雙面非球面鏡、1 片非球面 UA 鏡、1 片非球面鏡、1 片 UD 低色散鏡片</t>
+  </si>
+  <si>
+    <t>9 組 11 片包括 3 片非球面</t>
+  </si>
+  <si>
+    <t>TTL-AREA-SIR 自動對焦感應器;
+61 個對焦點41 點對應 f/4 十字對焦;
+單次對焦 (One-Shot AF);
+人工智能伺服對焦 (AI SERVO);
+6 種自動對焦區域模式(包括區域自動對焦及重點自動對焦);
+Dual Pixel CMOS AF</t>
+  </si>
+  <si>
+    <t>MPEG-4 H.264</t>
+  </si>
+  <si>
+    <t>5cm - 無限遠 ( Wide ) 40cm - 無限遠 ( Tele )</t>
+  </si>
+  <si>
+    <t>Portrait Landscape Night Snapshot Kids &amp; Pets Indoor Sports Sunset Night Scene Fireworks Beach Underwater Aquarium F</t>
+  </si>
+  <si>
+    <t>1/25600 至 30 秒、個別拍攝模式可達 25 秒不支援 B 快門</t>
+  </si>
+  <si>
+    <t>1/4000 至 8 秒不支援 B 快門</t>
+  </si>
+  <si>
+    <t>1/40000 至 60 秒支援 B 快門</t>
+  </si>
+  <si>
+    <t>1/8000 至 30 秒支援 B 快門</t>
+  </si>
+  <si>
+    <t>1/4000 至 60 (Bulb) 秒支援 B 快門</t>
+  </si>
+  <si>
+    <t>平均測光 (Evaluative) 中央重點平均測光 (Centre-Weighted Averaging) 點測光 (Spot)</t>
+  </si>
+  <si>
+    <t>矩陣：3D 彩色矩陣測光 III / 偏重中央：約 75% 的比重集中在畫面中央 12、 8、15 或 20 mm 直徑圈中或者平均分佈於整個畫面 / 重點: 集中在以所選對焦點為中心的 4 mm 直徑圈中（約 1.5%）</t>
+  </si>
+  <si>
+    <t>61 個對焦點41 點對應 f/4 十字對焦</t>
+  </si>
+  <si>
+    <t>125 - 12800 (每 1/3 級調校 可擴展至 ISO 25600)</t>
+  </si>
+  <si>
+    <t>自動 預設 (Daylight Shade Cloudy Tungsten Fluorescent Fluorescent H Flash Underwater) 手動白平衡</t>
+  </si>
+  <si>
+    <t>-5EV 至 +5EV 以 1/3 EV 1/2 EV 級調整</t>
+  </si>
+  <si>
+    <t>-3EV 至 +3EV 每次以 1/3EV 調整</t>
+  </si>
+  <si>
+    <t>拍攝 2 至 9 幅以 1/3、1/2、2/3 或 1 EV 為等級進行微調</t>
+  </si>
+  <si>
+    <t>3 / 5 張 1/2 1 2 3 EV 間距</t>
+  </si>
+  <si>
+    <t>包圍數量 2 3 5 7 張</t>
+  </si>
+  <si>
+    <t>100 200 400 800 1600 3200 6400 12800 25600 51200(1/3 級調校)</t>
+  </si>
+  <si>
+    <t>ISO 100 - 102400可擴展至 ISO 50 (Low-1) / 204800 (Hi-1) / 409600 (Hi-2) / 819200 (Hi-3) / 1638400 (Hi-4) / 3280000 (Hi-5)</t>
+  </si>
+  <si>
+    <t>ISO 200 - 6400 可擴展至 ISO 100</t>
+  </si>
+  <si>
+    <t>擴展模式 50 102400 204800 409600</t>
+  </si>
+  <si>
+    <t>自動（3種類型）、白熾燈、螢光燈（7種類型）、直射陽光、閃光、陰天、陰影、選擇色溫(2500 K-10000 K)均可進行微調</t>
+  </si>
+  <si>
+    <t>2 秒 10 秒 自訂時間 面部偵測自拍模式</t>
+  </si>
+  <si>
+    <t>支援 1 - 60 分鐘 1 - 100 張</t>
+  </si>
+  <si>
+    <t>sport portrait landscape night portrait snow/beach fireworks candlelight sunset</t>
+  </si>
+  <si>
+    <t>3.0 吋 TFT 觸控 LCD 熒光幕 視野率為 100 %</t>
+  </si>
+  <si>
+    <t>3 吋 TFT LCD5 級光度調整 熒光幕 視野率為 98 %</t>
+  </si>
+  <si>
+    <t>3.0 吋 TFT LCD 熒光幕 視野率為 100 %</t>
+  </si>
+  <si>
+    <t>3.2 吋 Touch 熒光幕 視野率為 100 %</t>
+  </si>
+  <si>
+    <t>3.2 吋 TFT LCD（輕觸式） 熒光幕 視野率為 100 %</t>
+  </si>
+  <si>
+    <t>1 / 8000 至 30 秒支援 B 快門</t>
+  </si>
+  <si>
+    <t>1/8000 至 30 秒不支援 B 快門</t>
+  </si>
+  <si>
+    <t>368 萬像素電子觀景器光學觀景器的準確度為 100%</t>
+  </si>
+  <si>
+    <t>支援放大率約 0.76 倍光學觀景器的準確度為 100%</t>
+  </si>
+  <si>
+    <t>眼平五棱鏡單鏡反光觀景器; 約 0.72 倍放大率光學觀景器的準確度為 100%</t>
+  </si>
+  <si>
+    <t>150000像素RGB+IR測光感應器</t>
+  </si>
+  <si>
+    <t>雙記憶卡插槽: 每張卡都可用作主要或備用儲存空間或用於分開儲存 NEF（RAW）和 JPEG 影像；照片可在兩張卡之間進行複製</t>
+  </si>
+  <si>
+    <t>USB 3.1 Gen 1 HDMI</t>
+  </si>
+  <si>
+    <t>拍攝三張以 1/3 級 EV增減 3 EV 值</t>
+  </si>
+  <si>
+    <t>PictBridge Digital Print Order Format (DPOF) Version 1.1</t>
+  </si>
+  <si>
+    <t>PictBridge Exif Print</t>
+  </si>
+  <si>
+    <t>100 200 400 800 1600 3200 6400 12800 25600 32100(1/3 級調校)</t>
+  </si>
+  <si>
+    <t>Auto 100-50000</t>
+  </si>
+  <si>
+    <t>擴展模式 50 102400</t>
+  </si>
+  <si>
+    <t>3780 張</t>
+  </si>
+  <si>
+    <t>3.2 吋 Touch LCD 熒光幕 視野率為 100 %</t>
+  </si>
+  <si>
+    <t>3.2 吋 多角度 TFT LCD（輕觸式） 熒光幕 視野率為 100 %</t>
+  </si>
+  <si>
+    <t>3 吋 觸控式 TFT LCD 熒光幕 視野率為 100 %</t>
+  </si>
+  <si>
+    <t>0.71x 放大率、稜鏡反射式光學觀景器的準確度為 100%</t>
+  </si>
+  <si>
+    <t>369 萬點 EVF; 約 0.8 倍放大率光學觀景器的準確度為 100%</t>
+  </si>
+  <si>
+    <t>內置 236 萬點 EVF光學觀景器的準確度為 100%</t>
+  </si>
+  <si>
+    <t>在拍片的時候光圈、快門及 ISO 可完全手動控制</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;NT$&quot;#,##0_);\(&quot;NT$&quot;#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1857,7 +1806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1912,31 +1861,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1948,26 +1891,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2285,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EE64BC-3DF1-4711-B9D0-1FE16482607E}">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="G24" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2308,259 +2260,259 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>494</v>
+        <v>395</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>494</v>
+        <v>395</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>494</v>
+        <v>395</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>493</v>
+        <v>394</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>493</v>
+        <v>394</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>494</v>
+        <v>395</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>494</v>
+        <v>395</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>494</v>
+        <v>395</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="32" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="18" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="G2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="H2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="32" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="J2" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="18" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="32" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="32" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" s="32" t="s">
+    <row r="4" spans="1:12" s="18" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>492</v>
-      </c>
-      <c r="D4" s="32" t="s">
+      <c r="C4" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="35" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="121.5" x14ac:dyDescent="0.25">
+      <c r="F4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="36" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="35">
+        <v>117000</v>
+      </c>
+      <c r="C5" s="35">
+        <v>102980</v>
+      </c>
+      <c r="D5" s="35">
+        <v>155000</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35">
+        <v>16500</v>
+      </c>
+      <c r="G5" s="35">
+        <v>15900</v>
+      </c>
+      <c r="H5" s="35">
+        <v>183160</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35">
+        <v>169000</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="L5" s="35">
+        <v>226000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>275</v>
+        <v>397</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>276</v>
+        <v>398</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>277</v>
+        <v>399</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>279</v>
+        <v>401</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="E7" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>280</v>
+        <v>406</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>407</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>281</v>
+        <v>408</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>62</v>
+        <v>409</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>63</v>
+        <v>410</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>64</v>
+        <v>411</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -2572,7 +2524,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>18</v>
@@ -2584,7 +2536,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>18</v>
@@ -2598,19 +2550,19 @@
     </row>
     <row r="10" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>18</v>
@@ -2622,13 +2574,13 @@
         <v>18</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>18</v>
@@ -2636,102 +2588,102 @@
     </row>
     <row r="11" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="E11" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="E11" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>388</v>
+        <v>316</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>389</v>
+        <v>317</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>4</v>
@@ -2743,33 +2695,33 @@
         <v>20</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>390</v>
+        <v>318</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>18</v>
@@ -2781,19 +2733,19 @@
         <v>22</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>18</v>
@@ -2807,7 +2759,7 @@
     </row>
     <row r="16" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>5</v>
@@ -2819,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>5</v>
@@ -2831,7 +2783,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>5</v>
@@ -2845,7 +2797,7 @@
     </row>
     <row r="17" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>18</v>
@@ -2857,7 +2809,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>18</v>
@@ -2869,7 +2821,7 @@
         <v>18</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>18</v>
@@ -2883,7 +2835,7 @@
     </row>
     <row r="18" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>6</v>
@@ -2895,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>18</v>
@@ -2907,7 +2859,7 @@
         <v>18</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>6</v>
@@ -2921,7 +2873,7 @@
     </row>
     <row r="19" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
@@ -2933,225 +2885,225 @@
         <v>24</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>392</v>
+        <v>320</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>393</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>486</v>
+        <v>73</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>389</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>488</v>
+        <v>370</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>391</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>491</v>
+        <v>73</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>8</v>
@@ -3163,63 +3115,63 @@
         <v>25</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>286</v>
+        <v>417</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>26</v>
+        <v>418</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>287</v>
+        <v>419</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>91</v>
+        <v>420</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>92</v>
+        <v>421</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>26</v>
+        <v>418</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>18</v>
@@ -3227,75 +3179,75 @@
     </row>
     <row r="34" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>289</v>
+        <v>423</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>396</v>
+        <v>323</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>289</v>
+        <v>423</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B35" s="11">
         <v>0.12638888888888888</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="11">
         <v>0.12638888888888888</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H35" s="11">
         <v>0.12638888888888888</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J35" s="11">
         <v>0.12638888888888888</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>471</v>
+        <v>377</v>
       </c>
       <c r="L35" s="11">
         <v>0.12638888888888888</v>
@@ -3303,124 +3255,124 @@
     </row>
     <row r="36" spans="1:12" ht="121.5" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>474</v>
+        <v>379</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>465</v>
+        <v>375</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>475</v>
+        <v>380</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>469</v>
+        <v>376</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>472</v>
+        <v>429</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>477</v>
+        <v>382</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>473</v>
+        <v>378</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>477</v>
+        <v>382</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>18</v>
@@ -3429,83 +3381,83 @@
         <v>18</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>479</v>
+        <v>383</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>479</v>
+        <v>383</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>18</v>
@@ -3517,7 +3469,7 @@
         <v>18</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>18</v>
@@ -3530,242 +3482,242 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="A42" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
       <c r="I42" s="9" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>119</v>
+        <v>431</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I43" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="J43" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I44" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="J44" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="K45" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>398</v>
+        <v>125</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="K45" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="L45" s="24" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I46" s="25"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="27"/>
+        <v>248</v>
+      </c>
+      <c r="I46" s="22"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="25"/>
     </row>
     <row r="47" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>30</v>
+        <v>384</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I47" s="25"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="27"/>
+        <v>119</v>
+      </c>
+      <c r="I47" s="22"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="25"/>
     </row>
     <row r="48" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="9" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I48" s="25"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="27"/>
+        <v>123</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="25"/>
     </row>
     <row r="49" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>18</v>
@@ -3776,69 +3728,69 @@
       <c r="H49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="25"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="27"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="25"/>
     </row>
     <row r="50" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="I50" s="26"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="28"/>
+        <v>125</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I50" s="23"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="26"/>
     </row>
     <row r="51" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
+        <v>95</v>
+      </c>
+      <c r="E51" s="22"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="9" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>399</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3846,21 +3798,21 @@
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="9" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3868,21 +3820,21 @@
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
       <c r="I53" s="9" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3891,28 +3843,28 @@
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="9" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3921,28 +3873,28 @@
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="9" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>400</v>
+        <v>326</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>401</v>
+        <v>327</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>402</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3951,28 +3903,28 @@
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="9" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>152</v>
+        <v>435</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>459</v>
+        <v>371</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3981,16 +3933,16 @@
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="9" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="4"/>
@@ -4003,7 +3955,7 @@
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="9" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>18</v>
@@ -4025,7 +3977,7 @@
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="9" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>18</v>
@@ -4069,688 +4021,688 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="E62" s="10" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
-      <c r="I62" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
+      <c r="I62" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
     </row>
     <row r="63" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="I63" s="21" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E64" s="25"/>
+        <v>248</v>
+      </c>
+      <c r="E64" s="22"/>
       <c r="F64" s="15" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I64" s="25"/>
+        <v>143</v>
+      </c>
+      <c r="I64" s="22"/>
       <c r="J64" s="15" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E65" s="26"/>
+        <v>248</v>
+      </c>
+      <c r="E65" s="23"/>
       <c r="F65" s="4" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I65" s="26"/>
+        <v>144</v>
+      </c>
+      <c r="I65" s="23"/>
       <c r="J65" s="4" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>168</v>
+        <v>436</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>172</v>
+        <v>437</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>173</v>
+        <v>438</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>174</v>
+        <v>439</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>311</v>
+        <v>440</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>311</v>
+        <v>440</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>403</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>176</v>
+        <v>442</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="K68" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="L68" s="18" t="s">
-        <v>407</v>
+        <v>329</v>
+      </c>
+      <c r="K68" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="L68" s="24" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I69" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I69" s="22"/>
       <c r="J69" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
+        <v>330</v>
+      </c>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
     </row>
     <row r="70" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>297</v>
+        <v>252</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>253</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I70" s="25"/>
+      <c r="I70" s="22"/>
       <c r="J70" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
+        <v>267</v>
+      </c>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
     </row>
     <row r="71" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C71" s="27"/>
+        <v>444</v>
+      </c>
+      <c r="C71" s="25"/>
       <c r="D71" s="15" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I71" s="25"/>
+        <v>161</v>
+      </c>
+      <c r="I71" s="22"/>
       <c r="J71" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
+        <v>269</v>
+      </c>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
     </row>
     <row r="72" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C72" s="27"/>
+        <v>256</v>
+      </c>
+      <c r="C72" s="25"/>
       <c r="D72" s="15" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>187</v>
+        <v>445</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I72" s="26"/>
+        <v>164</v>
+      </c>
+      <c r="I72" s="23"/>
       <c r="J72" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
+        <v>271</v>
+      </c>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
     </row>
     <row r="73" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C73" s="27"/>
+        <v>258</v>
+      </c>
+      <c r="C73" s="25"/>
       <c r="D73" s="15" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>191</v>
+        <v>446</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>408</v>
+        <v>332</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>323</v>
+        <v>447</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>409</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="25"/>
+      <c r="A74" s="22"/>
       <c r="B74" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C74" s="27"/>
+        <v>259</v>
+      </c>
+      <c r="C74" s="25"/>
       <c r="D74" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="E74" s="26"/>
+        <v>260</v>
+      </c>
+      <c r="E74" s="23"/>
       <c r="F74" s="4" t="s">
-        <v>457</v>
+        <v>369</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="26"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="28"/>
+      <c r="C75" s="26"/>
       <c r="D75" s="16"/>
       <c r="I75" s="21" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="J75" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="K75" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="L75" s="18" t="s">
-        <v>410</v>
+        <v>448</v>
+      </c>
+      <c r="K75" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="L75" s="24" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I76" s="25"/>
+        <v>95</v>
+      </c>
+      <c r="I76" s="22"/>
       <c r="J76" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
+        <v>451</v>
+      </c>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
     </row>
     <row r="77" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I77" s="26"/>
+        <v>248</v>
+      </c>
+      <c r="I77" s="23"/>
       <c r="J77" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
+        <v>275</v>
+      </c>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
     </row>
     <row r="78" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="21" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J78" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="K78" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="L78" s="18" t="s">
-        <v>414</v>
+        <v>452</v>
+      </c>
+      <c r="K78" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="L78" s="24" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="26"/>
+      <c r="I79" s="23"/>
       <c r="J79" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
+        <v>455</v>
+      </c>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
     </row>
     <row r="80" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="21" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>415</v>
+        <v>334</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>334</v>
+        <v>456</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>416</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>196</v>
+        <v>457</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I81" s="26"/>
+        <v>171</v>
+      </c>
+      <c r="I81" s="23"/>
       <c r="J81" s="4" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
-      <c r="E82" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F82" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="H82" s="22" t="s">
-        <v>202</v>
+      <c r="E82" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="H82" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="21" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
+        <v>142</v>
+      </c>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
       <c r="I83" s="9" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>418</v>
+        <v>337</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>419</v>
+        <v>338</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>420</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="25"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="15" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>204</v>
+        <v>458</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>18</v>
@@ -4759,10 +4711,10 @@
         <v>18</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>18</v>
@@ -4772,120 +4724,120 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="26"/>
+      <c r="A85" s="23"/>
       <c r="B85" s="4" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
+      <c r="I85" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
     </row>
     <row r="86" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>35</v>
+        <v>459</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>207</v>
+        <v>460</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>208</v>
+        <v>461</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>209</v>
+        <v>462</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>424</v>
+        <v>341</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>310</v>
+        <v>465</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>311</v>
+        <v>440</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>312</v>
+        <v>466</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>212</v>
+        <v>467</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="21" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>314</v>
+        <v>470</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>265</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>10</v>
@@ -4897,7 +4849,7 @@
         <v>18</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>10</v>
@@ -4910,72 +4862,72 @@
       </c>
     </row>
     <row r="89" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="25"/>
+      <c r="A89" s="22"/>
       <c r="B89" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C89" s="27"/>
+        <v>267</v>
+      </c>
+      <c r="C89" s="25"/>
       <c r="D89" s="15" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
-      <c r="I89" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
+      <c r="I89" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="28"/>
     </row>
     <row r="90" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="25"/>
+      <c r="A90" s="22"/>
       <c r="B90" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C90" s="27"/>
+        <v>269</v>
+      </c>
+      <c r="C90" s="25"/>
       <c r="D90" s="15" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="I90" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="J90" s="18" t="s">
-        <v>426</v>
+        <v>183</v>
+      </c>
+      <c r="J90" s="24" t="s">
+        <v>342</v>
       </c>
       <c r="K90" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="L90" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="L90" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="26"/>
+      <c r="A91" s="23"/>
       <c r="B91" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C91" s="28"/>
+        <v>271</v>
+      </c>
+      <c r="C91" s="26"/>
       <c r="D91" s="4" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>18</v>
@@ -4986,28 +4938,28 @@
       <c r="H91" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I91" s="26"/>
-      <c r="J91" s="28"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="26"/>
       <c r="K91" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="L91" s="28"/>
+        <v>471</v>
+      </c>
+      <c r="L91" s="26"/>
     </row>
     <row r="92" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>323</v>
+        <v>447</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>18</v>
@@ -5019,7 +4971,7 @@
         <v>18</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>18</v>
@@ -5033,31 +4985,31 @@
     </row>
     <row r="93" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>222</v>
+        <v>472</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>18</v>
@@ -5071,93 +5023,93 @@
     </row>
     <row r="94" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="21" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>327</v>
+        <v>448</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>473</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>429</v>
+        <v>344</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>463</v>
+        <v>373</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="25"/>
+      <c r="A95" s="22"/>
       <c r="B95" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
+        <v>451</v>
+      </c>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
       <c r="E95" s="9" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>228</v>
+        <v>474</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="9" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>430</v>
+        <v>345</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="L95" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="26"/>
+      <c r="A96" s="23"/>
       <c r="B96" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
+        <v>275</v>
+      </c>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
       <c r="E96" s="9"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="L96" s="4" t="s">
         <v>18</v>
@@ -5165,77 +5117,77 @@
     </row>
     <row r="97" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="21" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="D97" s="18" t="s">
-        <v>36</v>
+        <v>476</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>477</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
-      <c r="I97" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
+      <c r="I97" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="J97" s="28"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="28"/>
     </row>
     <row r="98" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="26"/>
+      <c r="A98" s="23"/>
       <c r="B98" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
+        <v>478</v>
+      </c>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
       <c r="E98" s="9" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>432</v>
+        <v>346</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>433</v>
+        <v>347</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>434</v>
+        <v>348</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="21" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>334</v>
+        <v>456</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>18</v>
@@ -5247,7 +5199,7 @@
         <v>18</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>18</v>
@@ -5260,74 +5212,74 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="26"/>
+      <c r="A100" s="23"/>
       <c r="B100" s="4" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>435</v>
+        <v>349</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>436</v>
+        <v>350</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>437</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="F101" s="4">
         <v>235</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="H101" s="4">
         <v>350</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="J101" s="4">
         <v>1210</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>18</v>
@@ -5335,64 +5287,64 @@
     </row>
     <row r="102" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="B102" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="D102" s="18" t="s">
-        <v>37</v>
+        <v>172</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="9" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>439</v>
+        <v>352</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="26"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
       <c r="E103" s="9"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I103" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J103" s="24"/>
-      <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
+      <c r="I103" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="J103" s="28"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="28"/>
     </row>
     <row r="104" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>18</v>
@@ -5401,13 +5353,13 @@
         <v>18</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
       <c r="I104" s="9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J104" s="4" t="s">
         <v>18</v>
@@ -5421,12 +5373,12 @@
     </row>
     <row r="105" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="E105" s="9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>18</v>
@@ -5438,45 +5390,45 @@
         <v>18</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>342</v>
+        <v>480</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>343</v>
+        <v>481</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>344</v>
+        <v>482</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="J106" s="4" t="s">
         <v>18</v>
@@ -5490,22 +5442,22 @@
     </row>
     <row r="107" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>345</v>
+        <v>483</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>346</v>
+        <v>485</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>18</v>
@@ -5514,21 +5466,21 @@
         <v>18</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>442</v>
+        <v>355</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>443</v>
+        <v>356</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>10</v>
@@ -5540,76 +5492,76 @@
         <v>18</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>444</v>
+        <v>357</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>445</v>
+        <v>358</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>446</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="E109" s="9" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="I109" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="J109" s="24"/>
-      <c r="K109" s="24"/>
-      <c r="L109" s="24"/>
+        <v>221</v>
+      </c>
+      <c r="I109" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J109" s="28"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="28"/>
     </row>
     <row r="110" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="21" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="D110" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="D110" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
       <c r="I110" s="9" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="J110" s="4" t="s">
         <v>18</v>
@@ -5622,14 +5574,14 @@
       </c>
     </row>
     <row r="111" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="26"/>
+      <c r="A111" s="23"/>
       <c r="B111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
       <c r="E111" s="9" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>18</v>
@@ -5641,21 +5593,21 @@
         <v>18</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>447</v>
+        <v>360</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>448</v>
+        <v>361</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>449</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>18</v>
@@ -5667,19 +5619,19 @@
         <v>18</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="G112" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H112" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G112" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="24" t="s">
         <v>18</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="J112" s="4" t="s">
         <v>18</v>
@@ -5693,7 +5645,7 @@
     </row>
     <row r="113" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>18</v>
@@ -5704,40 +5656,40 @@
       <c r="D113" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E113" s="26"/>
+      <c r="E113" s="23"/>
       <c r="F113" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
+        <v>226</v>
+      </c>
+      <c r="G113" s="26"/>
+      <c r="H113" s="26"/>
       <c r="I113" s="21" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="J113" s="15" t="s">
-        <v>450</v>
+        <v>363</v>
       </c>
       <c r="K113" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="L113" s="18" t="s">
-        <v>455</v>
+        <v>486</v>
+      </c>
+      <c r="L113" s="24" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>462</v>
+        <v>372</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>18</v>
@@ -5748,109 +5700,109 @@
       <c r="H114" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I114" s="25"/>
+      <c r="I114" s="22"/>
       <c r="J114" s="15" t="s">
-        <v>451</v>
+        <v>364</v>
       </c>
       <c r="K114" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="L114" s="27"/>
+        <v>365</v>
+      </c>
+      <c r="L114" s="25"/>
     </row>
     <row r="115" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="H115" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I115" s="26"/>
+        <v>234</v>
+      </c>
+      <c r="H115" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="23"/>
       <c r="J115" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="L115" s="28"/>
+        <v>366</v>
+      </c>
+      <c r="L115" s="26"/>
     </row>
     <row r="116" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E116" s="25"/>
+        <v>95</v>
+      </c>
+      <c r="E116" s="22"/>
       <c r="F116" s="15" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="H116" s="27"/>
+        <v>235</v>
+      </c>
+      <c r="H116" s="25"/>
     </row>
     <row r="117" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
-      <c r="E117" s="25"/>
+      <c r="E117" s="22"/>
       <c r="F117" s="15" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="H117" s="27"/>
+        <v>236</v>
+      </c>
+      <c r="H117" s="25"/>
     </row>
     <row r="118" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E118" s="22"/>
+      <c r="F118" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E118" s="25"/>
-      <c r="F118" s="15" t="s">
-        <v>266</v>
-      </c>
       <c r="G118" s="3"/>
-      <c r="H118" s="27"/>
+      <c r="H118" s="25"/>
     </row>
     <row r="119" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>18</v>
@@ -5861,25 +5813,25 @@
       <c r="D119" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E119" s="26"/>
+      <c r="E119" s="23"/>
       <c r="F119" s="4" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="G119" s="16"/>
-      <c r="H119" s="28"/>
+      <c r="H119" s="26"/>
     </row>
     <row r="120" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>355</v>
+        <v>293</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
@@ -5888,13 +5840,13 @@
     </row>
     <row r="121" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="D121" s="4">
         <v>220</v>
@@ -5906,10 +5858,10 @@
     </row>
     <row r="122" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>357</v>
+        <v>295</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>18</v>
@@ -5924,7 +5876,7 @@
     </row>
     <row r="123" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -5935,7 +5887,7 @@
     </row>
     <row r="124" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>18</v>
@@ -5953,16 +5905,16 @@
     </row>
     <row r="125" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="4"/>
@@ -5972,10 +5924,10 @@
     </row>
     <row r="126" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>18</v>
@@ -5991,42 +5943,42 @@
     </row>
     <row r="127" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
     </row>
     <row r="130" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>18</v>
@@ -6040,7 +5992,7 @@
     </row>
     <row r="131" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>18</v>
@@ -6049,12 +6001,12 @@
         <v>18</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>18</v>
@@ -6068,59 +6020,116 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="D133" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D133" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="25"/>
+      <c r="A134" s="22"/>
       <c r="B134" s="15" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="D134" s="27"/>
+        <v>303</v>
+      </c>
+      <c r="D134" s="25"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="25"/>
+      <c r="A135" s="22"/>
       <c r="B135" s="15" t="s">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="C135" s="3"/>
-      <c r="D135" s="27"/>
+      <c r="D135" s="25"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="25"/>
+      <c r="A136" s="22"/>
       <c r="B136" s="15" t="s">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="C136" s="3"/>
-      <c r="D136" s="27"/>
+      <c r="D136" s="25"/>
     </row>
     <row r="137" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="26"/>
+      <c r="A137" s="23"/>
       <c r="B137" s="4" t="s">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="C137" s="16"/>
-      <c r="D137" s="28"/>
+      <c r="D137" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="E115:E119"/>
-    <mergeCell ref="H115:H119"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="L20:L31"/>
+    <mergeCell ref="I20:I31"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="C20:C31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="J20:J31"/>
+    <mergeCell ref="F20:F31"/>
+    <mergeCell ref="H20:H31"/>
+    <mergeCell ref="K20:K31"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="I103:L103"/>
+    <mergeCell ref="I109:L109"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="L113:L115"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="I97:L97"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="K75:K77"/>
+    <mergeCell ref="L75:L77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="D133:D137"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="I45:I50"/>
+    <mergeCell ref="L45:L50"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="K45:K50"/>
+    <mergeCell ref="J45:J50"/>
+    <mergeCell ref="I68:I72"/>
+    <mergeCell ref="K68:K72"/>
+    <mergeCell ref="L68:L72"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="C88:C91"/>
     <mergeCell ref="A94:A96"/>
@@ -6137,68 +6146,11 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="A70:A75"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="D133:D137"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="I45:I50"/>
-    <mergeCell ref="L45:L50"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="K45:K50"/>
-    <mergeCell ref="J45:J50"/>
-    <mergeCell ref="I68:I72"/>
-    <mergeCell ref="K68:K72"/>
-    <mergeCell ref="L68:L72"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="K75:K77"/>
-    <mergeCell ref="L75:L77"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="I103:L103"/>
-    <mergeCell ref="I109:L109"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="L113:L115"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="L90:L91"/>
-    <mergeCell ref="I97:L97"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="L20:L31"/>
-    <mergeCell ref="I20:I31"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="C20:C31"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="J20:J31"/>
-    <mergeCell ref="F20:F31"/>
-    <mergeCell ref="H20:H31"/>
-    <mergeCell ref="K20:K31"/>
+    <mergeCell ref="E115:E119"/>
+    <mergeCell ref="H115:H119"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
